--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7660"/>
+    <workbookView windowWidth="18468" windowHeight="9215"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -57,10 +57,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,7 +72,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,23 +88,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,21 +119,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -143,6 +128,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,9 +155,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,9 +172,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -195,21 +201,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,187 +224,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,43 +418,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,9 +468,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,148 +520,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -994,13 +994,13 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="41.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="32.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="41.6388888888889" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="58" spans="2:2">
+    <row r="8" ht="57.6" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9215"/>
+    <workbookView windowWidth="18530" windowHeight="7660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Phase 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -57,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -71,6 +72,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -78,32 +102,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -133,13 +134,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -155,13 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -172,44 +159,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,43 +225,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,139 +363,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,11 +419,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,43 +473,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,153 +505,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,14 +994,14 @@
   <sheetPr/>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73148148148148" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="32.4537037037037" customWidth="1"/>
-    <col min="2" max="2" width="41.6388888888889" customWidth="1"/>
+    <col min="1" max="1" width="32.4545454545455" customWidth="1"/>
+    <col min="2" max="2" width="41.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1041,7 +1042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="57.6" spans="2:2">
+    <row r="8" ht="58" spans="2:2">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1058,4 +1059,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7660" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7660"/>
   </bookViews>
   <sheets>
-    <sheet name="Phase 1" sheetId="1" r:id="rId1"/>
+    <sheet name="QuaLIS Ver 1.0.0" sheetId="1" r:id="rId1"/>
     <sheet name="Phase 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t>S. No</t>
+  </si>
   <si>
     <t>1. Creation of Folder</t>
   </si>
@@ -51,6 +54,68 @@
   </si>
   <si>
     <t>Selinium package</t>
+  </si>
+  <si>
+    <t>Create the folder</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>Launch the browser</t>
+  </si>
+  <si>
+    <t>Write code to launch the browser in Utilities package
+File name - Browser operation</t>
+  </si>
+  <si>
+    <t>Common - Reusable method</t>
+  </si>
+  <si>
+    <t>Write code to use common reusable method
+1. click
+2. Send Keys
+3. Drop down
+4. Explicit Wait
+5. Implicit Wait
+6. Clear
+7. Sleep
+8. Scroll
+9. Get text
+10. Get title
+11. Get url
+12. Refresh the link
+13. Hit the link</t>
+  </si>
+  <si>
+    <t>Folder name - Configuration</t>
+  </si>
+  <si>
+    <t>Create the .ini file under Configuration folder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">File name - config.ini
+Block - Credential
+  1. username
+  2. password
+  3. loginType
+  4. userRole
+  5. language
+Block - link
+link
+</t>
+  </si>
+  <si>
+    <t>Launch the application</t>
+  </si>
+  <si>
+    <t>create method name as launchLims() under Browser operation in Utility folder</t>
+  </si>
+  <si>
+    <t>login to the application</t>
+  </si>
+  <si>
+    <t>Create method name as loginLIMS() under Browser operation in Utility folder</t>
   </si>
 </sst>
 </file>
@@ -59,9 +124,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -72,6 +137,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -80,31 +199,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,55 +252,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,37 +275,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +290,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,37 +446,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -285,127 +470,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +481,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,21 +515,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,20 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,19 +567,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,148 +592,151 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -992,67 +1060,155 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="32.4545454545455" customWidth="1"/>
-    <col min="2" max="2" width="41.6363636363636" customWidth="1"/>
+    <col min="2" max="2" width="42.5454545454545" customWidth="1"/>
+    <col min="3" max="3" width="73.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="58" spans="2:2">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="9" ht="58" spans="3:3">
+      <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="29" spans="1:3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" ht="203" spans="1:3">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" ht="159.5" spans="1:3">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1066,7 +1222,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7660"/>
+    <workbookView windowWidth="18530" windowHeight="6950"/>
   </bookViews>
   <sheets>
     <sheet name="QuaLIS Ver 1.0.0" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>S. No</t>
   </si>
@@ -59,7 +59,10 @@
     <t>Create the folder</t>
   </si>
   <si>
-    <t>Driver</t>
+    <t>Driver and import the chromedriver.exe</t>
+  </si>
+  <si>
+    <t>3.a</t>
   </si>
   <si>
     <t>Launch the browser</t>
@@ -123,10 +126,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -138,7 +141,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,14 +179,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,119 +234,57 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,55 +293,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -350,127 +431,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,35 +495,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,6 +513,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,9 +567,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,148 +595,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -735,8 +744,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1060,10 +1069,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
@@ -1078,7 +1087,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1119,12 +1128,12 @@
       </c>
     </row>
     <row r="9" ht="58" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -1135,7 +1144,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>3</v>
       </c>
       <c r="B13" t="s">
@@ -1145,70 +1154,75 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" ht="29" spans="1:3">
-      <c r="A15">
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="29" spans="1:3">
+      <c r="A17">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="B17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" ht="203" spans="1:3">
-      <c r="A17">
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="203" spans="1:3">
+      <c r="A19">
         <v>5</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="B19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>12</v>
       </c>
-      <c r="C19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" ht="159.5" spans="1:3">
-      <c r="A21">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" ht="159.5" spans="1:3">
+      <c r="A23">
         <v>7</v>
       </c>
-      <c r="B21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
         <v>9</v>
       </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B27" t="s">
         <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950"/>
+    <workbookView windowWidth="18530" windowHeight="6950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="QuaLIS Ver 1.0.0" sheetId="1" r:id="rId1"/>
-    <sheet name="Phase 2" sheetId="2" r:id="rId2"/>
+    <sheet name="QuaLIS Ver 1.0.0 - Done" sheetId="1" r:id="rId1"/>
+    <sheet name="QuaLIS Ver 1.0.1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>S. No</t>
   </si>
@@ -120,18 +120,33 @@
   <si>
     <t>Create method name as loginLIMS() under Browser operation in Utility folder</t>
   </si>
+  <si>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Create setting folder</t>
+  </si>
+  <si>
+    <t>Create info file for Setting folder</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,15 +155,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,6 +187,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,10 +223,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,22 +256,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -232,11 +263,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -249,28 +294,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,43 +322,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -347,144 +502,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -493,11 +516,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,20 +587,29 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,7 +633,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,145 +648,145 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
@@ -1071,23 +1115,24 @@
   <sheetPr/>
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
+    <col min="1" max="1" width="8.72727272727273" style="3"/>
     <col min="2" max="2" width="42.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="73.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1128,12 +1173,12 @@
       </c>
     </row>
     <row r="9" ht="58" spans="3:3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -1144,7 +1189,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>3</v>
       </c>
       <c r="B13" t="s">
@@ -1155,34 +1200,34 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" ht="29" spans="1:3">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="203" spans="1:3">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>6</v>
       </c>
       <c r="B21" t="s">
@@ -1193,18 +1238,18 @@
       </c>
     </row>
     <row r="23" ht="159.5" spans="1:3">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>8</v>
       </c>
       <c r="B25" t="s">
@@ -1215,7 +1260,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>9</v>
       </c>
       <c r="B27" t="s">
@@ -1234,14 +1279,46 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="30.4545454545455" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="6950" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="6950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="QuaLIS Ver 1.0.0 - Done" sheetId="1" r:id="rId1"/>
     <sheet name="QuaLIS Ver 1.0.1" sheetId="2" r:id="rId2"/>
+    <sheet name="General" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>S. No</t>
   </si>
@@ -135,15 +136,42 @@
   <si>
     <t>Create info file for Setting folder</t>
   </si>
+  <si>
+    <t>Three term screens</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Storage Condition</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Test Category</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -192,13 +220,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -223,27 +244,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -255,6 +259,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -263,45 +275,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,19 +362,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,7 +482,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,139 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,28 +598,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,11 +616,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,6 +645,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -636,145 +664,145 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1281,7 +1309,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -1322,4 +1350,68 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
+    <col min="2" max="2" width="17.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>S. No</t>
   </si>
@@ -143,6 +143,9 @@
     <t>Unit</t>
   </si>
   <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Storage Condition</t>
   </si>
   <si>
@@ -162,6 +165,9 @@
   </si>
   <si>
     <t>Product Category</t>
+  </si>
+  <si>
+    <t>Two term screens</t>
   </si>
 </sst>
 </file>
@@ -169,10 +175,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -192,19 +198,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -214,6 +227,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -223,6 +250,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,13 +279,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -283,53 +311,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,187 +356,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,6 +561,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,30 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -661,154 +667,163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1149,18 +1164,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.72727272727273" style="3"/>
+    <col min="1" max="1" width="8.72727272727273" style="6"/>
     <col min="2" max="2" width="42.5454545454545" customWidth="1"/>
     <col min="3" max="3" width="73.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1201,12 +1216,12 @@
       </c>
     </row>
     <row r="9" ht="58" spans="3:3">
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3">
+      <c r="A11" s="6">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -1217,7 +1232,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3">
+      <c r="A13" s="6">
         <v>3</v>
       </c>
       <c r="B13" t="s">
@@ -1228,34 +1243,34 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" ht="29" spans="1:3">
-      <c r="A17" s="3">
+      <c r="A17" s="6">
         <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="203" spans="1:3">
-      <c r="A19" s="3">
+      <c r="A19" s="6">
         <v>5</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3">
+      <c r="A21" s="6">
         <v>6</v>
       </c>
       <c r="B21" t="s">
@@ -1266,18 +1281,18 @@
       </c>
     </row>
     <row r="23" ht="159.5" spans="1:3">
-      <c r="A23" s="3">
+      <c r="A23" s="6">
         <v>7</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3">
+      <c r="A25" s="6">
         <v>8</v>
       </c>
       <c r="B25" t="s">
@@ -1288,7 +1303,7 @@
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="3">
+      <c r="A27" s="6">
         <v>9</v>
       </c>
       <c r="B27" t="s">
@@ -1319,14 +1334,14 @@
     <col min="3" max="3" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1355,60 +1370,94 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
     <col min="2" max="2" width="17.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="2:2">
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
       <c r="B6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" t="s">
-        <v>39</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11">
+      <c r="J13" s="2"/>
+      <c r="K13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Work Plan.xlsx
+++ b/Work Plan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>S. No</t>
   </si>
@@ -169,16 +169,55 @@
   <si>
     <t>Two term screens</t>
   </si>
+  <si>
+    <t>Storage Location</t>
+  </si>
+  <si>
+    <t>Container Type</t>
+  </si>
+  <si>
+    <t>EDQM Master File Type</t>
+  </si>
+  <si>
+    <t>EDQM Component Bulk Group</t>
+  </si>
+  <si>
+    <t>EDQM Bulk Type</t>
+  </si>
+  <si>
+    <t>EDQM Product Domain</t>
+  </si>
+  <si>
+    <t>EDQM Manufacturer</t>
+  </si>
+  <si>
+    <t>User Role</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>Method Category</t>
+  </si>
+  <si>
+    <t>QB Category</t>
+  </si>
+  <si>
+    <t>Supplier Category</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -197,6 +236,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -204,15 +258,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,44 +283,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +305,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -287,14 +328,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -303,39 +336,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -356,25 +395,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,25 +539,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,121 +551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,8 +607,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,6 +624,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,30 +684,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -662,153 +692,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1370,16 +1409,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.5454545454545" customWidth="1"/>
-    <col min="2" max="2" width="17.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="29.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1450,14 +1489,75 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="10:11">
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
